--- a/Jogos_do_Dia/2024-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -172,12 +172,12 @@
     <t>10:45:00</t>
   </si>
   <si>
-    <t>12:30:00</t>
-  </si>
-  <si>
     <t>12:45:00</t>
   </si>
   <si>
+    <t>12:55:00</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Mura</t>
   </si>
   <si>
+    <t>Aluminij</t>
+  </si>
+  <si>
     <t>Partizan</t>
   </si>
   <si>
-    <t>Aluminij</t>
-  </si>
-  <si>
     <t>Korona Kielce</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>AFC Bournemouth</t>
   </si>
   <si>
+    <t>Ross County</t>
+  </si>
+  <si>
     <t>Dundee</t>
   </si>
   <si>
-    <t>Ross County</t>
-  </si>
-  <si>
     <t>Peterborough United</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>Bravo</t>
   </si>
   <si>
+    <t>Rogaška</t>
+  </si>
+  <si>
     <t>Napredak</t>
   </si>
   <si>
-    <t>Rogaška</t>
-  </si>
-  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
@@ -259,10 +259,10 @@
     <t>Luton Town</t>
   </si>
   <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
     <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
   </si>
   <si>
     <t>Stevenage</t>
@@ -793,13 +793,13 @@
         <v>4.33</v>
       </c>
       <c r="J2">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L2">
-        <v>4.08</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -820,10 +820,10 @@
         <v>3.35</v>
       </c>
       <c r="S2">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U2">
         <v>1.73</v>
@@ -924,10 +924,10 @@
         <v>3.25</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>2.55</v>
@@ -951,10 +951,10 @@
         <v>2.93</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T3">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -996,16 +996,16 @@
         <v>2.01</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL3">
         <v>1.7</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="4" spans="1:43">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2">
         <v>45364</v>
@@ -1037,7 +1037,7 @@
         <v>52</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>62</v>
@@ -1046,120 +1046,120 @@
         <v>74</v>
       </c>
       <c r="G4">
-        <v>1.62</v>
+        <v>2.85</v>
       </c>
       <c r="H4">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="I4">
-        <v>7.5</v>
+        <v>3.72</v>
       </c>
       <c r="J4">
-        <v>1.23</v>
+        <v>2.3</v>
       </c>
       <c r="K4">
-        <v>6.05</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>3.04</v>
       </c>
       <c r="O4">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q4">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="R4">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="S4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
+        <v>1.85</v>
+      </c>
+      <c r="U4">
+        <v>1.73</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1.41</v>
+      </c>
+      <c r="X4">
+        <v>1.29</v>
+      </c>
+      <c r="Y4">
+        <v>1.47</v>
+      </c>
+      <c r="Z4">
+        <v>0.85</v>
+      </c>
+      <c r="AA4">
+        <v>0.77</v>
+      </c>
+      <c r="AB4">
+        <v>1.32</v>
+      </c>
+      <c r="AC4">
+        <v>1.19</v>
+      </c>
+      <c r="AD4">
+        <v>2.51</v>
+      </c>
+      <c r="AE4">
+        <v>1.87</v>
+      </c>
+      <c r="AF4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>2.13</v>
+      </c>
+      <c r="AH4">
+        <v>1.22</v>
+      </c>
+      <c r="AI4">
+        <v>3.8</v>
+      </c>
+      <c r="AJ4">
+        <v>1.38</v>
+      </c>
+      <c r="AK4">
+        <v>2.8</v>
+      </c>
+      <c r="AL4">
+        <v>1.65</v>
+      </c>
+      <c r="AM4">
+        <v>2.1</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>1.73</v>
+      </c>
+      <c r="AP4">
         <v>2.5</v>
       </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
-      <c r="V4">
-        <v>1.7</v>
-      </c>
-      <c r="W4">
-        <v>1.02</v>
-      </c>
-      <c r="X4">
-        <v>1.11</v>
-      </c>
-      <c r="Y4">
-        <v>4</v>
-      </c>
-      <c r="Z4">
-        <v>2.58</v>
-      </c>
-      <c r="AA4">
-        <v>1.42</v>
-      </c>
-      <c r="AB4">
-        <v>2.09</v>
-      </c>
-      <c r="AC4">
-        <v>1.28</v>
-      </c>
-      <c r="AD4">
-        <v>3.37</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>45364</v>
@@ -1168,7 +1168,7 @@
         <v>53</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
@@ -1177,76 +1177,76 @@
         <v>75</v>
       </c>
       <c r="G5">
-        <v>2.85</v>
+        <v>1.62</v>
       </c>
       <c r="H5">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="I5">
-        <v>3.72</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>2.29</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>3.12</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>2.84</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N5">
-        <v>3.04</v>
+        <v>3.6</v>
       </c>
       <c r="O5">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q5">
+        <v>1.14</v>
+      </c>
+      <c r="R5">
+        <v>5.25</v>
+      </c>
+      <c r="S5">
+        <v>1.55</v>
+      </c>
+      <c r="T5">
+        <v>2.35</v>
+      </c>
+      <c r="U5">
+        <v>1.95</v>
+      </c>
+      <c r="V5">
+        <v>1.7</v>
+      </c>
+      <c r="W5">
+        <v>1.02</v>
+      </c>
+      <c r="X5">
+        <v>1.11</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>2.58</v>
+      </c>
+      <c r="AA5">
+        <v>1.42</v>
+      </c>
+      <c r="AB5">
+        <v>2.09</v>
+      </c>
+      <c r="AC5">
         <v>1.28</v>
       </c>
-      <c r="R5">
-        <v>3.4</v>
-      </c>
-      <c r="S5">
-        <v>1.87</v>
-      </c>
-      <c r="T5">
-        <v>1.83</v>
-      </c>
-      <c r="U5">
-        <v>1.73</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1.41</v>
-      </c>
-      <c r="X5">
-        <v>1.29</v>
-      </c>
-      <c r="Y5">
-        <v>1.47</v>
-      </c>
-      <c r="Z5">
-        <v>0.85</v>
-      </c>
-      <c r="AA5">
-        <v>0.77</v>
-      </c>
-      <c r="AB5">
-        <v>1.32</v>
-      </c>
-      <c r="AC5">
-        <v>1.19</v>
-      </c>
       <c r="AD5">
-        <v>2.51</v>
+        <v>3.37</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1317,13 +1317,13 @@
         <v>2.5</v>
       </c>
       <c r="J6">
-        <v>4.1</v>
+        <v>3.47</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="L6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="M6">
         <v>1.41</v>
@@ -1344,10 +1344,10 @@
         <v>3.3</v>
       </c>
       <c r="S6">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="T6">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U6">
         <v>1.78</v>
@@ -1380,43 +1380,43 @@
         <v>3.18</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1448,13 +1448,13 @@
         <v>3.1</v>
       </c>
       <c r="J7">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
         <v>1.42</v>
@@ -1475,10 +1475,10 @@
         <v>3.2</v>
       </c>
       <c r="S7">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T7">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U7">
         <v>1.7</v>
@@ -1511,43 +1511,43 @@
         <v>3</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1579,13 +1579,13 @@
         <v>4.5</v>
       </c>
       <c r="J8">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="K8">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="M8">
         <v>1.51</v>
@@ -1606,10 +1606,10 @@
         <v>2.7</v>
       </c>
       <c r="S8">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="T8">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U8">
         <v>2.05</v>
@@ -1713,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L9">
         <v>1.25</v>
@@ -1737,10 +1737,10 @@
         <v>5.25</v>
       </c>
       <c r="S9">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T9">
-        <v>2.63</v>
+        <v>2.56</v>
       </c>
       <c r="U9">
         <v>1.83</v>
@@ -1841,13 +1841,13 @@
         <v>5.5</v>
       </c>
       <c r="J10">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="K10">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L10">
-        <v>5.2</v>
+        <v>4.84</v>
       </c>
       <c r="M10">
         <v>1.3</v>
@@ -1868,10 +1868,10 @@
         <v>4.45</v>
       </c>
       <c r="S10">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T10">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="U10">
         <v>1.8</v>
@@ -1969,16 +1969,16 @@
         <v>2.1</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
-        <v>2.39</v>
+        <v>2.8</v>
       </c>
       <c r="K11">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="L11">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="M11">
         <v>1.44</v>
@@ -2002,7 +2002,7 @@
         <v>1.8</v>
       </c>
       <c r="T11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
         <v>1.8</v>
@@ -2011,67 +2011,67 @@
         <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Y11">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Z11">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="AA11">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AB11">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AC11">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AD11">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AE11">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AF11">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG11">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="AH11">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AI11">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ11">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AK11">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AL11">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AM11">
+        <v>2.2</v>
+      </c>
+      <c r="AN11">
+        <v>1.95</v>
+      </c>
+      <c r="AO11">
+        <v>1.7</v>
+      </c>
+      <c r="AP11">
         <v>2.6</v>
       </c>
-      <c r="AN11">
-        <v>1.7</v>
-      </c>
-      <c r="AO11">
-        <v>1.95</v>
-      </c>
-      <c r="AP11">
-        <v>2.15</v>
-      </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2100,16 +2100,16 @@
         <v>2.1</v>
       </c>
       <c r="I12">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J12">
-        <v>3.4</v>
+        <v>2.19</v>
       </c>
       <c r="K12">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="L12">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="M12">
         <v>1.44</v>
@@ -2130,7 +2130,7 @@
         <v>3.2</v>
       </c>
       <c r="S12">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T12">
         <v>1.95</v>
@@ -2142,67 +2142,67 @@
         <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X12">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Y12">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Z12">
+        <v>1.46</v>
+      </c>
+      <c r="AA12">
+        <v>0.86</v>
+      </c>
+      <c r="AB12">
+        <v>1.35</v>
+      </c>
+      <c r="AC12">
+        <v>1.12</v>
+      </c>
+      <c r="AD12">
+        <v>2.47</v>
+      </c>
+      <c r="AE12">
+        <v>1.75</v>
+      </c>
+      <c r="AF12">
+        <v>8.5</v>
+      </c>
+      <c r="AG12">
+        <v>2.35</v>
+      </c>
+      <c r="AH12">
         <v>1.15</v>
       </c>
-      <c r="AA12">
-        <v>1.15</v>
-      </c>
-      <c r="AB12">
-        <v>1.23</v>
-      </c>
-      <c r="AC12">
-        <v>1.1</v>
-      </c>
-      <c r="AD12">
-        <v>2.33</v>
-      </c>
-      <c r="AE12">
-        <v>2.1</v>
-      </c>
-      <c r="AF12">
-        <v>8</v>
-      </c>
-      <c r="AG12">
-        <v>1.91</v>
-      </c>
-      <c r="AH12">
-        <v>1.18</v>
-      </c>
       <c r="AI12">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ12">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AK12">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AL12">
+        <v>1.4</v>
+      </c>
+      <c r="AM12">
+        <v>2.6</v>
+      </c>
+      <c r="AN12">
+        <v>1.7</v>
+      </c>
+      <c r="AO12">
+        <v>1.95</v>
+      </c>
+      <c r="AP12">
+        <v>2.15</v>
+      </c>
+      <c r="AQ12">
         <v>1.57</v>
-      </c>
-      <c r="AM12">
-        <v>2.2</v>
-      </c>
-      <c r="AN12">
-        <v>1.95</v>
-      </c>
-      <c r="AO12">
-        <v>1.7</v>
-      </c>
-      <c r="AP12">
-        <v>2.6</v>
-      </c>
-      <c r="AQ12">
-        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2234,13 +2234,13 @@
         <v>4.33</v>
       </c>
       <c r="J13">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="K13">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="L13">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="M13">
         <v>1.36</v>
@@ -2261,10 +2261,10 @@
         <v>3.7</v>
       </c>
       <c r="S13">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="T13">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U13">
         <v>1.75</v>

--- a/Jogos_do_Dia/2024-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -214,21 +214,21 @@
     <t>Radomlje</t>
   </si>
   <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
     <t>Levante UD</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
+    <t>Dundee</t>
+  </si>
+  <si>
     <t>Ross County</t>
   </si>
   <si>
-    <t>Dundee</t>
-  </si>
-  <si>
     <t>Peterborough United</t>
   </si>
   <si>
@@ -250,19 +250,19 @@
     <t>Domžale</t>
   </si>
   <si>
+    <t>Red Star Belgrade</t>
+  </si>
+  <si>
     <t>FC Andorra</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
   </si>
   <si>
     <t>Stevenage</t>
@@ -793,13 +793,13 @@
         <v>4.33</v>
       </c>
       <c r="J2">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="K2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>1.4</v>
@@ -820,10 +820,10 @@
         <v>3.35</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T2">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U2">
         <v>1.73</v>
@@ -841,10 +841,10 @@
         <v>1.85</v>
       </c>
       <c r="Z2">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AA2">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AB2">
         <v>1.4</v>
@@ -856,43 +856,43 @@
         <v>2.7</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -951,10 +951,10 @@
         <v>2.93</v>
       </c>
       <c r="S3">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="T3">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -972,10 +972,10 @@
         <v>1.39</v>
       </c>
       <c r="Z3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AA3">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AB3">
         <v>1.16</v>
@@ -1055,13 +1055,13 @@
         <v>3.72</v>
       </c>
       <c r="J4">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.17</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1082,10 +1082,10 @@
         <v>3.4</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U4">
         <v>1.73</v>
@@ -1186,13 +1186,13 @@
         <v>7.5</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="M5">
         <v>1.25</v>
@@ -1213,10 +1213,10 @@
         <v>5.25</v>
       </c>
       <c r="S5">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="T5">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1249,43 +1249,43 @@
         <v>3.37</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1317,13 +1317,13 @@
         <v>2.5</v>
       </c>
       <c r="J6">
-        <v>3.47</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="M6">
         <v>1.41</v>
@@ -1344,10 +1344,10 @@
         <v>3.3</v>
       </c>
       <c r="S6">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T6">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U6">
         <v>1.78</v>
@@ -1448,13 +1448,13 @@
         <v>3.1</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
         <v>1.42</v>
@@ -1475,7 +1475,7 @@
         <v>3.2</v>
       </c>
       <c r="S7">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
         <v>1.79</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>45364</v>
@@ -1561,7 +1561,7 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
@@ -1570,120 +1570,120 @@
         <v>78</v>
       </c>
       <c r="G8">
-        <v>2.65</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>1.62</v>
       </c>
       <c r="J8">
-        <v>1.98</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>3.31</v>
+        <v>5.6</v>
       </c>
       <c r="L8">
-        <v>3.97</v>
+        <v>1.15</v>
       </c>
       <c r="M8">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="R8">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="S8">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="T8">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="U8">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="V8">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.22</v>
+        <v>4.4</v>
       </c>
       <c r="X8">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="Y8">
+        <v>1.01</v>
+      </c>
+      <c r="Z8">
+        <v>1.25</v>
+      </c>
+      <c r="AA8">
+        <v>2.25</v>
+      </c>
+      <c r="AB8">
+        <v>1.63</v>
+      </c>
+      <c r="AC8">
+        <v>2.06</v>
+      </c>
+      <c r="AD8">
+        <v>3.69</v>
+      </c>
+      <c r="AE8">
+        <v>5.75</v>
+      </c>
+      <c r="AF8">
+        <v>12.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.18</v>
+      </c>
+      <c r="AH8">
+        <v>1.14</v>
+      </c>
+      <c r="AI8">
+        <v>4.9</v>
+      </c>
+      <c r="AJ8">
+        <v>1.26</v>
+      </c>
+      <c r="AK8">
+        <v>3.34</v>
+      </c>
+      <c r="AL8">
+        <v>1.44</v>
+      </c>
+      <c r="AM8">
+        <v>2.6</v>
+      </c>
+      <c r="AN8">
         <v>1.8</v>
       </c>
-      <c r="Z8">
-        <v>1.86</v>
-      </c>
-      <c r="AA8">
-        <v>0.47</v>
-      </c>
-      <c r="AB8">
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8">
+        <v>2.3</v>
+      </c>
+      <c r="AQ8">
         <v>1.55</v>
-      </c>
-      <c r="AC8">
-        <v>1.31</v>
-      </c>
-      <c r="AD8">
-        <v>2.86</v>
-      </c>
-      <c r="AE8">
-        <v>1.75</v>
-      </c>
-      <c r="AF8">
-        <v>8</v>
-      </c>
-      <c r="AG8">
-        <v>2.52</v>
-      </c>
-      <c r="AH8">
-        <v>1.37</v>
-      </c>
-      <c r="AI8">
-        <v>2.95</v>
-      </c>
-      <c r="AJ8">
-        <v>1.68</v>
-      </c>
-      <c r="AK8">
-        <v>2.1</v>
-      </c>
-      <c r="AL8">
-        <v>2.1</v>
-      </c>
-      <c r="AM8">
-        <v>1.67</v>
-      </c>
-      <c r="AN8">
-        <v>2.95</v>
-      </c>
-      <c r="AO8">
-        <v>1.36</v>
-      </c>
-      <c r="AP8">
-        <v>4.2</v>
-      </c>
-      <c r="AQ8">
-        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>45364</v>
@@ -1692,7 +1692,7 @@
         <v>56</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -1701,115 +1701,115 @@
         <v>79</v>
       </c>
       <c r="G9">
+        <v>2.65</v>
+      </c>
+      <c r="H9">
+        <v>1.95</v>
+      </c>
+      <c r="I9">
+        <v>4.5</v>
+      </c>
+      <c r="J9">
+        <v>1.92</v>
+      </c>
+      <c r="K9">
+        <v>3.05</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>1.51</v>
+      </c>
+      <c r="N9">
+        <v>2.4</v>
+      </c>
+      <c r="O9">
+        <v>1.06</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="H9">
-        <v>2.75</v>
-      </c>
-      <c r="I9">
-        <v>1.62</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>5.5</v>
-      </c>
-      <c r="L9">
-        <v>1.25</v>
-      </c>
-      <c r="M9">
+      <c r="Q9">
+        <v>1.42</v>
+      </c>
+      <c r="R9">
+        <v>2.7</v>
+      </c>
+      <c r="S9">
+        <v>2.17</v>
+      </c>
+      <c r="T9">
+        <v>1.61</v>
+      </c>
+      <c r="U9">
+        <v>2.05</v>
+      </c>
+      <c r="V9">
+        <v>1.72</v>
+      </c>
+      <c r="W9">
         <v>1.22</v>
       </c>
-      <c r="N9">
-        <v>3.75</v>
-      </c>
-      <c r="O9">
-        <v>1.01</v>
-      </c>
-      <c r="P9">
-        <v>11</v>
-      </c>
-      <c r="Q9">
-        <v>1.13</v>
-      </c>
-      <c r="R9">
-        <v>5.25</v>
-      </c>
-      <c r="S9">
-        <v>1.45</v>
-      </c>
-      <c r="T9">
-        <v>2.56</v>
-      </c>
-      <c r="U9">
-        <v>1.83</v>
-      </c>
-      <c r="V9">
+      <c r="X9">
+        <v>1.28</v>
+      </c>
+      <c r="Y9">
         <v>1.8</v>
       </c>
-      <c r="W9">
-        <v>4.4</v>
-      </c>
-      <c r="X9">
-        <v>1.11</v>
-      </c>
-      <c r="Y9">
-        <v>1.01</v>
-      </c>
       <c r="Z9">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="AA9">
-        <v>2.25</v>
+        <v>0.47</v>
       </c>
       <c r="AB9">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AC9">
-        <v>2.06</v>
+        <v>1.31</v>
       </c>
       <c r="AD9">
-        <v>3.69</v>
+        <v>2.86</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1841,13 +1841,13 @@
         <v>5.5</v>
       </c>
       <c r="J10">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="K10">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>4.84</v>
+        <v>5.4</v>
       </c>
       <c r="M10">
         <v>1.3</v>
@@ -1868,10 +1868,10 @@
         <v>4.45</v>
       </c>
       <c r="S10">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T10">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="U10">
         <v>1.8</v>
@@ -1969,16 +1969,16 @@
         <v>2.1</v>
       </c>
       <c r="I11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J11">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K11">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>2.14</v>
+        <v>2.75</v>
       </c>
       <c r="M11">
         <v>1.44</v>
@@ -1999,10 +1999,10 @@
         <v>3.2</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="U11">
         <v>1.8</v>
@@ -2011,67 +2011,67 @@
         <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X11">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Y11">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Z11">
+        <v>1.46</v>
+      </c>
+      <c r="AA11">
+        <v>0.86</v>
+      </c>
+      <c r="AB11">
+        <v>1.35</v>
+      </c>
+      <c r="AC11">
+        <v>1.12</v>
+      </c>
+      <c r="AD11">
+        <v>2.47</v>
+      </c>
+      <c r="AE11">
+        <v>1.75</v>
+      </c>
+      <c r="AF11">
+        <v>8.5</v>
+      </c>
+      <c r="AG11">
+        <v>2.35</v>
+      </c>
+      <c r="AH11">
         <v>1.15</v>
       </c>
-      <c r="AA11">
-        <v>1.15</v>
-      </c>
-      <c r="AB11">
-        <v>1.23</v>
-      </c>
-      <c r="AC11">
-        <v>1.1</v>
-      </c>
-      <c r="AD11">
-        <v>2.33</v>
-      </c>
-      <c r="AE11">
-        <v>2.1</v>
-      </c>
-      <c r="AF11">
-        <v>8</v>
-      </c>
-      <c r="AG11">
-        <v>1.91</v>
-      </c>
-      <c r="AH11">
-        <v>1.18</v>
-      </c>
       <c r="AI11">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ11">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AK11">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AL11">
+        <v>1.4</v>
+      </c>
+      <c r="AM11">
+        <v>2.6</v>
+      </c>
+      <c r="AN11">
+        <v>1.7</v>
+      </c>
+      <c r="AO11">
+        <v>1.95</v>
+      </c>
+      <c r="AP11">
+        <v>2.15</v>
+      </c>
+      <c r="AQ11">
         <v>1.57</v>
-      </c>
-      <c r="AM11">
-        <v>2.2</v>
-      </c>
-      <c r="AN11">
-        <v>1.95</v>
-      </c>
-      <c r="AO11">
-        <v>1.7</v>
-      </c>
-      <c r="AP11">
-        <v>2.6</v>
-      </c>
-      <c r="AQ11">
-        <v>1.41</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2100,16 +2100,16 @@
         <v>2.1</v>
       </c>
       <c r="I12">
+        <v>3.25</v>
+      </c>
+      <c r="J12">
+        <v>2.9</v>
+      </c>
+      <c r="K12">
         <v>3.4</v>
       </c>
-      <c r="J12">
-        <v>2.19</v>
-      </c>
-      <c r="K12">
-        <v>3.37</v>
-      </c>
       <c r="L12">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="M12">
         <v>1.44</v>
@@ -2130,10 +2130,10 @@
         <v>3.2</v>
       </c>
       <c r="S12">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T12">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -2142,67 +2142,67 @@
         <v>1.95</v>
       </c>
       <c r="W12">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Y12">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="Z12">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="AA12">
-        <v>0.86</v>
+        <v>1.15</v>
       </c>
       <c r="AB12">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AC12">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AD12">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AE12">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AF12">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG12">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="AH12">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AI12">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ12">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AK12">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AL12">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AM12">
+        <v>2.2</v>
+      </c>
+      <c r="AN12">
+        <v>1.95</v>
+      </c>
+      <c r="AO12">
+        <v>1.7</v>
+      </c>
+      <c r="AP12">
         <v>2.6</v>
       </c>
-      <c r="AN12">
-        <v>1.7</v>
-      </c>
-      <c r="AO12">
-        <v>1.95</v>
-      </c>
-      <c r="AP12">
-        <v>2.15</v>
-      </c>
       <c r="AQ12">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2234,13 +2234,13 @@
         <v>4.33</v>
       </c>
       <c r="J13">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="K13">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>3.87</v>
+        <v>4.1</v>
       </c>
       <c r="M13">
         <v>1.36</v>
@@ -2261,10 +2261,10 @@
         <v>3.7</v>
       </c>
       <c r="S13">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="T13">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U13">
         <v>1.75</v>
